--- a/Waxing_Ver_02_Documents/03_Specification/03_DataBase Design Document/Database_ERDiagram.xlsx
+++ b/Waxing_Ver_02_Documents/03_Specification/03_DataBase Design Document/Database_ERDiagram.xlsx
@@ -8,9 +8,29 @@
   </bookViews>
   <sheets>
     <sheet name="Database_Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Board" sheetId="2" r:id="rId2"/>
+    <sheet name="Board_Picture" sheetId="3" r:id="rId3"/>
+    <sheet name="Grade_List" sheetId="4" r:id="rId4"/>
+    <sheet name="Reply" sheetId="5" r:id="rId5"/>
+    <sheet name="Reservation" sheetId="6" r:id="rId6"/>
+    <sheet name="Schedule" sheetId="7" r:id="rId7"/>
+    <sheet name="Surgery" sheetId="8" r:id="rId8"/>
+    <sheet name="Twitter" sheetId="9" r:id="rId9"/>
+    <sheet name="User_Information" sheetId="10" r:id="rId10"/>
+    <sheet name="User_Stastic" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Board!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Board_Picture!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Database_Sheet!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Grade_List!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">Reply!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">Reservation!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">Schedule!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">Surgery!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">Twitter!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">User_Information!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">User_Stastic!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,9 +42,800 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
   <si>
     <t>Database_RelationDiagram</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logical Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_For_Users</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constraint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_Number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Inc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_Information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_Content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_Kinds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_Picture_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>writedate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_Write_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_flg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete_Flag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'0'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logical Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_Picture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PictureList_Board</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture List For Board</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constraint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref_Board_Number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture_name_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture_name_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture_name_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture_name_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture_name_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture_name_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture_name_04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture_name_04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'0'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logical Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade_List</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constraint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Grade_Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Inc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_flg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete_Flag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'0'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply_For_Board</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply On Board Record</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply_Number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_Ref_Number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_Information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply_Content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>writedate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply_WriteDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation On User</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reserve_Num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation_Num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>participant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation_Participant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgery_Num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation_Surgery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surgery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation_Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation_Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_Flg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation_Check_Flag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logical Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule_Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surgery Time on Schedule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constraint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule_Num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservable_Sechdule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surgery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surgery_Information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>To display Surgery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgery_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surgery_Number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Inc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surgery_Kinds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surgery_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surgery_Comment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surgery_Price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twitter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twit_For_User</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record for Twit to User</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information of Users</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_Information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_NickName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_PhoneNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_flg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete_Flag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'0'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Stastic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stastic for Users</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_Information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_NickName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_flg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete_Flag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'0'</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -126,6 +937,238 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -138,7 +1181,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +1242,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,6 +1315,93 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2513,19 +3691,19 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="10"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -2534,34 +3712,34 @@
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
       <c r="R3" s="11"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
@@ -2570,34 +3748,34 @@
       <c r="AL3" s="3"/>
     </row>
     <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -2606,34 +3784,34 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
@@ -2657,19 +3835,19 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -2697,40 +3875,40 @@
       <c r="AN7" s="5"/>
     </row>
     <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
@@ -2738,40 +3916,40 @@
       <c r="AN8" s="6"/>
     </row>
     <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
@@ -2779,40 +3957,40 @@
       <c r="AN9" s="7"/>
     </row>
     <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
@@ -2820,40 +3998,40 @@
       <c r="AN10" s="7"/>
     </row>
     <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
@@ -2861,40 +4039,40 @@
       <c r="AN11" s="7"/>
     </row>
     <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
@@ -2902,40 +4080,40 @@
       <c r="AN12" s="7"/>
     </row>
     <row r="13" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
@@ -2943,40 +4121,40 @@
       <c r="AN13" s="7"/>
     </row>
     <row r="14" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
@@ -3071,4 +4249,6538 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AN14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="3" style="29"/>
+    <col min="6" max="6" width="3" style="33"/>
+    <col min="7" max="8" width="3" style="34"/>
+    <col min="9" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:40" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49">
+        <v>60</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55">
+        <v>2</v>
+      </c>
+      <c r="C10" s="56">
+        <v>2</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49">
+        <v>100</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55">
+        <v>3</v>
+      </c>
+      <c r="C11" s="56">
+        <v>3</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49">
+        <v>50</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="55">
+        <v>4</v>
+      </c>
+      <c r="C12" s="56">
+        <v>4</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49">
+        <v>20</v>
+      </c>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="55">
+        <v>5</v>
+      </c>
+      <c r="C13" s="56">
+        <v>5</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49">
+        <v>3</v>
+      </c>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="51">
+        <v>6</v>
+      </c>
+      <c r="C14" s="52">
+        <v>6</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45">
+        <v>1</v>
+      </c>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="T4:AF4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:V14">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AN12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="3" style="29"/>
+    <col min="6" max="6" width="3" style="33"/>
+    <col min="7" max="8" width="3" style="34"/>
+    <col min="9" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:40" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49">
+        <v>60</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55">
+        <v>2</v>
+      </c>
+      <c r="C10" s="56">
+        <v>2</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49">
+        <v>100</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55">
+        <v>3</v>
+      </c>
+      <c r="C11" s="56">
+        <v>3</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49">
+        <v>50</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51">
+        <v>4</v>
+      </c>
+      <c r="C12" s="52">
+        <v>6</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45">
+        <v>1</v>
+      </c>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="T4:AF4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:V12">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AN16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="3" style="29"/>
+    <col min="6" max="6" width="3" style="33"/>
+    <col min="7" max="8" width="3" style="34"/>
+    <col min="9" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:40" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55">
+        <v>2</v>
+      </c>
+      <c r="C10" s="56">
+        <v>2</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49">
+        <v>60</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55">
+        <v>3</v>
+      </c>
+      <c r="C11" s="56">
+        <v>3</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49">
+        <v>100</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="55">
+        <v>4</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="55">
+        <v>5</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49">
+        <v>1</v>
+      </c>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="55">
+        <v>6</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49">
+        <v>300</v>
+      </c>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="55">
+        <v>7</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="51">
+        <v>8</v>
+      </c>
+      <c r="C16" s="52">
+        <v>6</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45">
+        <v>1</v>
+      </c>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="T4:AF4"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:V16">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AO13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="6" width="3" style="29"/>
+    <col min="7" max="7" width="3" style="33"/>
+    <col min="8" max="9" width="3" style="34"/>
+    <col min="10" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:41" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="8"/>
+    </row>
+    <row r="3" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+    </row>
+    <row r="4" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="8"/>
+    </row>
+    <row r="5" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+    </row>
+    <row r="6" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+    </row>
+    <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+    </row>
+    <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="61"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+    </row>
+    <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55">
+        <v>2</v>
+      </c>
+      <c r="C10" s="56">
+        <v>2</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49">
+        <v>30</v>
+      </c>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+    </row>
+    <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55">
+        <v>3</v>
+      </c>
+      <c r="C11" s="56">
+        <v>3</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49">
+        <v>30</v>
+      </c>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+    </row>
+    <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="55">
+        <v>4</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49">
+        <v>30</v>
+      </c>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+    </row>
+    <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="51">
+        <v>8</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45">
+        <v>30</v>
+      </c>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="E2:R2"/>
+    <mergeCell ref="U2:AG2"/>
+    <mergeCell ref="E3:R3"/>
+    <mergeCell ref="U3:AG3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="U4:AG4"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="U5:AG5"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9:W13">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AN11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="3" style="29"/>
+    <col min="6" max="6" width="3" style="33"/>
+    <col min="7" max="8" width="3" style="34"/>
+    <col min="9" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:40" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49">
+        <v>3</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55">
+        <v>2</v>
+      </c>
+      <c r="C10" s="56">
+        <v>2</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49">
+        <v>20</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="51">
+        <v>3</v>
+      </c>
+      <c r="C11" s="52">
+        <v>6</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45">
+        <v>1</v>
+      </c>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="T4:AF4"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:V11">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AN13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="3" style="29"/>
+    <col min="6" max="6" width="3" style="33"/>
+    <col min="7" max="8" width="3" style="34"/>
+    <col min="9" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:40" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55">
+        <v>2</v>
+      </c>
+      <c r="C10" s="56">
+        <v>2</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55">
+        <v>3</v>
+      </c>
+      <c r="C11" s="56">
+        <v>3</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49">
+        <v>60</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="55">
+        <v>3</v>
+      </c>
+      <c r="C12" s="56">
+        <v>3</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49">
+        <v>200</v>
+      </c>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="51">
+        <v>4</v>
+      </c>
+      <c r="C13" s="52">
+        <v>6</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="T4:AF4"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AA13:AE13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:V13">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AO16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="3" style="29"/>
+    <col min="6" max="6" width="3" style="33"/>
+    <col min="7" max="8" width="3" style="34"/>
+    <col min="9" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:41" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="8"/>
+    </row>
+    <row r="3" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+    </row>
+    <row r="4" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="8"/>
+    </row>
+    <row r="5" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+    </row>
+    <row r="6" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+    </row>
+    <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+    </row>
+    <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="61"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+    </row>
+    <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55">
+        <v>2</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49">
+        <v>60</v>
+      </c>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+    </row>
+    <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55">
+        <v>3</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49">
+        <v>3</v>
+      </c>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+    </row>
+    <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="55">
+        <v>4</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+    </row>
+    <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="55">
+        <v>5</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+    </row>
+    <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="55">
+        <v>6</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+    </row>
+    <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="55">
+        <v>7</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49">
+        <v>1</v>
+      </c>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+    </row>
+    <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="51">
+        <v>8</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45">
+        <v>1</v>
+      </c>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="E2:R2"/>
+    <mergeCell ref="U2:AG2"/>
+    <mergeCell ref="E3:R3"/>
+    <mergeCell ref="U3:AG3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="U4:AG4"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="U5:AG5"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U9:W16">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AN10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="3" style="29"/>
+    <col min="6" max="6" width="3" style="33"/>
+    <col min="7" max="8" width="3" style="34"/>
+    <col min="9" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:40" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="51">
+        <v>2</v>
+      </c>
+      <c r="C10" s="52">
+        <v>6</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45">
+        <v>30</v>
+      </c>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="T4:AF4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:V10">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AN13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="3" style="29"/>
+    <col min="6" max="6" width="3" style="33"/>
+    <col min="7" max="8" width="3" style="34"/>
+    <col min="9" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:40" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55">
+        <v>2</v>
+      </c>
+      <c r="C10" s="56">
+        <v>2</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49">
+        <v>2</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55">
+        <v>3</v>
+      </c>
+      <c r="C11" s="56">
+        <v>3</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49">
+        <v>50</v>
+      </c>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="55">
+        <v>4</v>
+      </c>
+      <c r="C12" s="56">
+        <v>3</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49">
+        <v>200</v>
+      </c>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="51">
+        <v>5</v>
+      </c>
+      <c r="C13" s="52">
+        <v>6</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="T4:AF4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:V13">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AN12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="27"/>
+    <col min="3" max="3" width="2.88671875" style="28" customWidth="1"/>
+    <col min="4" max="5" width="3" style="29"/>
+    <col min="6" max="6" width="3" style="33"/>
+    <col min="7" max="8" width="3" style="34"/>
+    <col min="9" max="16384" width="3" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:40" s="23" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="T5:AF5"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="T3:AF3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="T4:AF4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:V12">
+      <formula1>"○,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>